--- a/biology/Botanique/Chimaphila/Chimaphila.xlsx
+++ b/biology/Botanique/Chimaphila/Chimaphila.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Chimaphila (les chimaphiles) est un genre de plante à fleurs de la famille des Ericaceae et dont les espèces sont originaires des régions tempérées de l'hémisphère nord.
 Ce sont des plantes à feuilles persistantes.
@@ -512,7 +524,9 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le genre Chimaphila était auparavant classé dans la famille des Pyrolaceae.
 </t>
@@ -543,9 +557,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon The Plant List            (11 octobre 2021)[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon The Plant List            (11 octobre 2021) :
 Chimaphila japonica Miq.
 Chimaphila maculata (L.) Pursh
 Chimaphila menziesii (R.Br. ex D.Don) Spreng.
@@ -578,7 +594,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom du genre Chimaphila, « qui aime le froid », dérive du grec ancien χεῖμα, cheima, « hiver, mauvais temps, froid », et φιλία, philia, « amitié ».
 </t>
